--- a/input/chat_luong_noi_bo_njv.xlsx
+++ b/input/chat_luong_noi_bo_njv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trinhlk2/Desktop/superai/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2A472-36E5-D043-A632-201CBE9174DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1496AF4-940F-8C49-AD38-12A3757FE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6779,11 +6779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E1004" sqref="E1004"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6805,7 +6804,7 @@
       </c>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -7143,7 +7142,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>50</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>50</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>50</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>50</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -7871,7 +7870,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>9</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>9</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>9</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>50</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -8027,7 +8026,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
@@ -8079,7 +8078,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -8131,7 +8130,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>50</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>9</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>9</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>9</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>9</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>9</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>139</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>139</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>139</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>139</v>
       </c>
@@ -8521,7 +8520,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>139</v>
       </c>
@@ -8547,7 +8546,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>139</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>139</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>139</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>139</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>139</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>139</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>9</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>9</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>9</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>9</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>9</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>9</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>9</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>9</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>9</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>9</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>9</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>9</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>9</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>9</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>9</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>9</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>9</v>
       </c>
@@ -9197,7 +9196,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>9</v>
       </c>
@@ -9249,7 +9248,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>9</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>9</v>
       </c>
@@ -9327,7 +9326,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>9</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>9</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>9</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>9</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>9</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>9</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>9</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>9</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>9</v>
       </c>
@@ -9561,7 +9560,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>9</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>9</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>9</v>
       </c>
@@ -9639,7 +9638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>9</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>9</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>9</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>9</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>9</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>9</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>9</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>9</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>9</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>9</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>9</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>9</v>
       </c>
@@ -9951,7 +9950,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>50</v>
       </c>
@@ -9977,7 +9976,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>50</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>50</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>50</v>
       </c>
@@ -10055,7 +10054,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>50</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>50</v>
       </c>
@@ -10107,7 +10106,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>50</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>50</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>50</v>
       </c>
@@ -10185,7 +10184,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>50</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>50</v>
       </c>
@@ -10237,7 +10236,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>50</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>50</v>
       </c>
@@ -10289,7 +10288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>139</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>139</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>139</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>139</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>139</v>
       </c>
@@ -10419,7 +10418,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>139</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>139</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>139</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>139</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>139</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>139</v>
       </c>
@@ -10965,7 +10964,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>139</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>139</v>
       </c>
@@ -11017,7 +11016,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>139</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>139</v>
       </c>
@@ -11069,7 +11068,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>139</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>50</v>
       </c>
@@ -11121,7 +11120,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>50</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>50</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>50</v>
       </c>
@@ -11199,7 +11198,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>50</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>50</v>
       </c>
@@ -11251,7 +11250,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>50</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>50</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>50</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>50</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>9</v>
       </c>
@@ -11381,7 +11380,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>9</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>9</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>9</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>9</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>9</v>
       </c>
@@ -11511,7 +11510,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>9</v>
       </c>
@@ -11537,7 +11536,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>9</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>9</v>
       </c>
@@ -11589,7 +11588,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>9</v>
       </c>
@@ -11615,7 +11614,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>9</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>9</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>9</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>9</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>9</v>
       </c>
@@ -11745,7 +11744,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>9</v>
       </c>
@@ -11771,7 +11770,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>9</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>9</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>9</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>9</v>
       </c>
@@ -11875,7 +11874,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>9</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>9</v>
       </c>
@@ -11927,7 +11926,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>9</v>
       </c>
@@ -11953,7 +11952,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>139</v>
       </c>
@@ -11979,7 +11978,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>139</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>139</v>
       </c>
@@ -12031,7 +12030,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>139</v>
       </c>
@@ -12057,7 +12056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>139</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>139</v>
       </c>
@@ -12109,7 +12108,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>139</v>
       </c>
@@ -12135,7 +12134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>139</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>139</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>139</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>139</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>139</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>139</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>139</v>
       </c>
@@ -12317,7 +12316,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>139</v>
       </c>
@@ -12343,7 +12342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>139</v>
       </c>
@@ -12369,7 +12368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>139</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>50</v>
       </c>
@@ -12421,7 +12420,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>50</v>
       </c>
@@ -12447,7 +12446,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>50</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>50</v>
       </c>
@@ -12499,7 +12498,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>50</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>50</v>
       </c>
@@ -12551,7 +12550,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>50</v>
       </c>
@@ -12577,7 +12576,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>50</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>50</v>
       </c>
@@ -12629,7 +12628,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>50</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>50</v>
       </c>
@@ -12681,7 +12680,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>50</v>
       </c>
@@ -12707,7 +12706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>50</v>
       </c>
@@ -12733,7 +12732,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>50</v>
       </c>
@@ -12759,7 +12758,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>50</v>
       </c>
@@ -12785,7 +12784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>50</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>50</v>
       </c>
@@ -12837,7 +12836,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>50</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>50</v>
       </c>
@@ -12889,7 +12888,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>50</v>
       </c>
@@ -12915,7 +12914,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>50</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>50</v>
       </c>
@@ -12967,7 +12966,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>50</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>50</v>
       </c>
@@ -13019,7 +13018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>50</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>50</v>
       </c>
@@ -13071,7 +13070,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>50</v>
       </c>
@@ -13097,7 +13096,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>50</v>
       </c>
@@ -13123,7 +13122,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>50</v>
       </c>
@@ -13149,7 +13148,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>50</v>
       </c>
@@ -13175,7 +13174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>50</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>50</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>50</v>
       </c>
@@ -13253,7 +13252,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>50</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>50</v>
       </c>
@@ -13305,7 +13304,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>50</v>
       </c>
@@ -13331,7 +13330,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>50</v>
       </c>
@@ -13357,7 +13356,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>50</v>
       </c>
@@ -13383,7 +13382,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>50</v>
       </c>
@@ -13409,7 +13408,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>50</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>50</v>
       </c>
@@ -13461,7 +13460,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>50</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>50</v>
       </c>
@@ -13513,7 +13512,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>50</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>50</v>
       </c>
@@ -13565,7 +13564,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>50</v>
       </c>
@@ -13591,7 +13590,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>50</v>
       </c>
@@ -13617,7 +13616,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>50</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>50</v>
       </c>
@@ -13669,7 +13668,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>50</v>
       </c>
@@ -13695,7 +13694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>50</v>
       </c>
@@ -13721,7 +13720,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>50</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>50</v>
       </c>
@@ -13773,7 +13772,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>50</v>
       </c>
@@ -13799,7 +13798,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>50</v>
       </c>
@@ -13825,7 +13824,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>50</v>
       </c>
@@ -13851,7 +13850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>50</v>
       </c>
@@ -13877,7 +13876,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>50</v>
       </c>
@@ -13903,7 +13902,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>50</v>
       </c>
@@ -13929,7 +13928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>50</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>50</v>
       </c>
@@ -13981,7 +13980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>50</v>
       </c>
@@ -14007,7 +14006,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>50</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>50</v>
       </c>
@@ -14059,7 +14058,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>50</v>
       </c>
@@ -14085,7 +14084,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>50</v>
       </c>
@@ -14111,7 +14110,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>50</v>
       </c>
@@ -14137,7 +14136,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>50</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>50</v>
       </c>
@@ -14189,7 +14188,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>50</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>50</v>
       </c>
@@ -14241,7 +14240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>50</v>
       </c>
@@ -14267,7 +14266,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>50</v>
       </c>
@@ -14293,7 +14292,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>50</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>50</v>
       </c>
@@ -14345,7 +14344,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>50</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>50</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>50</v>
       </c>
@@ -14423,7 +14422,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>50</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>50</v>
       </c>
@@ -14475,7 +14474,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>50</v>
       </c>
@@ -14501,7 +14500,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>50</v>
       </c>
@@ -14527,7 +14526,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>50</v>
       </c>
@@ -14553,7 +14552,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>50</v>
       </c>
@@ -14579,7 +14578,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>50</v>
       </c>
@@ -14605,7 +14604,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>50</v>
       </c>
@@ -14631,7 +14630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>50</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>9</v>
       </c>
@@ -14683,7 +14682,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>9</v>
       </c>
@@ -14709,7 +14708,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>9</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>9</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>9</v>
       </c>
@@ -14787,7 +14786,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>9</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>9</v>
       </c>
@@ -14839,7 +14838,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>9</v>
       </c>
@@ -14865,7 +14864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>9</v>
       </c>
@@ -14891,7 +14890,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>9</v>
       </c>
@@ -14917,7 +14916,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>9</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>9</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>9</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>9</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>9</v>
       </c>
@@ -15047,7 +15046,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>9</v>
       </c>
@@ -15073,7 +15072,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>9</v>
       </c>
@@ -15099,7 +15098,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>9</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>9</v>
       </c>
@@ -15151,7 +15150,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>9</v>
       </c>
@@ -15177,7 +15176,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>9</v>
       </c>
@@ -15203,7 +15202,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>9</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>9</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>9</v>
       </c>
@@ -15281,7 +15280,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>9</v>
       </c>
@@ -15307,7 +15306,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>9</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>9</v>
       </c>
@@ -15359,7 +15358,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>9</v>
       </c>
@@ -15385,7 +15384,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>9</v>
       </c>
@@ -15411,7 +15410,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>9</v>
       </c>
@@ -15437,7 +15436,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>9</v>
       </c>
@@ -15463,7 +15462,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>9</v>
       </c>
@@ -15489,7 +15488,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>50</v>
       </c>
@@ -15515,7 +15514,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>50</v>
       </c>
@@ -15541,7 +15540,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>50</v>
       </c>
@@ -15567,7 +15566,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>50</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>50</v>
       </c>
@@ -15619,7 +15618,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>50</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>50</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>50</v>
       </c>
@@ -15697,7 +15696,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>50</v>
       </c>
@@ -15723,7 +15722,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
         <v>50</v>
       </c>
@@ -15749,7 +15748,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>50</v>
       </c>
@@ -15775,7 +15774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>50</v>
       </c>
@@ -15801,7 +15800,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>50</v>
       </c>
@@ -15827,7 +15826,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>50</v>
       </c>
@@ -15853,7 +15852,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>50</v>
       </c>
@@ -15879,7 +15878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>50</v>
       </c>
@@ -15905,7 +15904,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>50</v>
       </c>
@@ -15931,7 +15930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>50</v>
       </c>
@@ -15957,7 +15956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>50</v>
       </c>
@@ -15983,7 +15982,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>50</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>50</v>
       </c>
@@ -16035,7 +16034,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>139</v>
       </c>
@@ -16061,7 +16060,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>139</v>
       </c>
@@ -16087,7 +16086,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>139</v>
       </c>
@@ -16113,7 +16112,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>139</v>
       </c>
@@ -16139,7 +16138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>139</v>
       </c>
@@ -16165,7 +16164,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>139</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>139</v>
       </c>
@@ -16217,7 +16216,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>139</v>
       </c>
@@ -16243,7 +16242,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>139</v>
       </c>
@@ -16269,7 +16268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
         <v>9</v>
       </c>
@@ -16295,7 +16294,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>9</v>
       </c>
@@ -16321,7 +16320,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
         <v>9</v>
       </c>
@@ -16347,7 +16346,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>9</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>9</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>9</v>
       </c>
@@ -16425,7 +16424,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>9</v>
       </c>
@@ -16451,7 +16450,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>9</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>9</v>
       </c>
@@ -16503,7 +16502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>9</v>
       </c>
@@ -16529,7 +16528,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>9</v>
       </c>
@@ -16555,7 +16554,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>9</v>
       </c>
@@ -16581,7 +16580,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>9</v>
       </c>
@@ -16607,7 +16606,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>9</v>
       </c>
@@ -16633,7 +16632,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>9</v>
       </c>
@@ -16659,7 +16658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>139</v>
       </c>
@@ -16685,7 +16684,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>139</v>
       </c>
@@ -16711,7 +16710,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>139</v>
       </c>
@@ -16737,7 +16736,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>139</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
         <v>139</v>
       </c>
@@ -16789,7 +16788,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
         <v>139</v>
       </c>
@@ -16815,7 +16814,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
         <v>139</v>
       </c>
@@ -16841,7 +16840,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
         <v>139</v>
       </c>
@@ -16867,7 +16866,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>139</v>
       </c>
@@ -16893,7 +16892,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="7" t="s">
         <v>139</v>
       </c>
@@ -16919,7 +16918,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="7" t="s">
         <v>50</v>
       </c>
@@ -16945,7 +16944,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="7" t="s">
         <v>50</v>
       </c>
@@ -16971,7 +16970,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>50</v>
       </c>
@@ -16997,7 +16996,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
         <v>50</v>
       </c>
@@ -17023,7 +17022,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>50</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="7" t="s">
         <v>50</v>
       </c>
@@ -17075,7 +17074,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="7" t="s">
         <v>50</v>
       </c>
@@ -17101,7 +17100,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="7" t="s">
         <v>50</v>
       </c>
@@ -17127,7 +17126,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="7" t="s">
         <v>9</v>
       </c>
@@ -17153,7 +17152,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>9</v>
       </c>
@@ -17179,7 +17178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>9</v>
       </c>
@@ -17205,7 +17204,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>9</v>
       </c>
@@ -17231,7 +17230,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>9</v>
       </c>
@@ -17257,7 +17256,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>9</v>
       </c>
@@ -17283,7 +17282,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>9</v>
       </c>
@@ -17309,7 +17308,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>9</v>
       </c>
@@ -17335,7 +17334,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>9</v>
       </c>
@@ -17361,7 +17360,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>9</v>
       </c>
@@ -17387,7 +17386,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>9</v>
       </c>
@@ -17413,7 +17412,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>9</v>
       </c>
@@ -17439,7 +17438,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>50</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>50</v>
       </c>
@@ -17491,7 +17490,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>50</v>
       </c>
@@ -17517,7 +17516,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>50</v>
       </c>
@@ -17543,7 +17542,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>50</v>
       </c>
@@ -17569,7 +17568,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>50</v>
       </c>
@@ -17595,7 +17594,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>50</v>
       </c>
@@ -17621,7 +17620,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>50</v>
       </c>
@@ -17647,7 +17646,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>50</v>
       </c>
@@ -17673,7 +17672,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>50</v>
       </c>
@@ -17699,7 +17698,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>50</v>
       </c>
@@ -17725,7 +17724,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>50</v>
       </c>
@@ -17751,7 +17750,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>50</v>
       </c>
@@ -17777,7 +17776,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>50</v>
       </c>
@@ -17803,7 +17802,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>50</v>
       </c>
@@ -17829,7 +17828,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>50</v>
       </c>
@@ -17855,7 +17854,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>50</v>
       </c>
@@ -17881,7 +17880,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
         <v>50</v>
       </c>
@@ -17907,7 +17906,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>50</v>
       </c>
@@ -17933,7 +17932,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>50</v>
       </c>
@@ -17959,7 +17958,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>9</v>
       </c>
@@ -17985,7 +17984,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>9</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>9</v>
       </c>
@@ -18037,7 +18036,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>9</v>
       </c>
@@ -18063,7 +18062,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>9</v>
       </c>
@@ -18089,7 +18088,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>9</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>9</v>
       </c>
@@ -18141,7 +18140,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="7" t="s">
         <v>9</v>
       </c>
@@ -18167,7 +18166,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="7" t="s">
         <v>9</v>
       </c>
@@ -18193,7 +18192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="7" t="s">
         <v>9</v>
       </c>
@@ -18219,7 +18218,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="7" t="s">
         <v>9</v>
       </c>
@@ -18245,7 +18244,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>9</v>
       </c>
@@ -18271,7 +18270,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>9</v>
       </c>
@@ -18297,7 +18296,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>9</v>
       </c>
@@ -18323,7 +18322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="7" t="s">
         <v>9</v>
       </c>
@@ -18349,7 +18348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="7" t="s">
         <v>50</v>
       </c>
@@ -18375,7 +18374,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="7" t="s">
         <v>50</v>
       </c>
@@ -18401,7 +18400,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
         <v>50</v>
       </c>
@@ -18427,7 +18426,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>50</v>
       </c>
@@ -18453,7 +18452,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>50</v>
       </c>
@@ -18479,7 +18478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="7" t="s">
         <v>50</v>
       </c>
@@ -18505,7 +18504,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="7" t="s">
         <v>50</v>
       </c>
@@ -18531,7 +18530,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>50</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>50</v>
       </c>
@@ -18583,7 +18582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>50</v>
       </c>
@@ -18609,7 +18608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>50</v>
       </c>
@@ -18635,7 +18634,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>50</v>
       </c>
@@ -18661,7 +18660,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="7" t="s">
         <v>50</v>
       </c>
@@ -18687,7 +18686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="7" t="s">
         <v>50</v>
       </c>
@@ -18713,7 +18712,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="7" t="s">
         <v>50</v>
       </c>
@@ -18739,7 +18738,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>50</v>
       </c>
@@ -18765,7 +18764,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>50</v>
       </c>
@@ -18791,7 +18790,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>50</v>
       </c>
@@ -18817,7 +18816,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>50</v>
       </c>
@@ -18843,7 +18842,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="7" t="s">
         <v>50</v>
       </c>
@@ -18869,7 +18868,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="7" t="s">
         <v>50</v>
       </c>
@@ -18895,7 +18894,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
         <v>50</v>
       </c>
@@ -18921,7 +18920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>50</v>
       </c>
@@ -18947,7 +18946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>50</v>
       </c>
@@ -18973,7 +18972,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>50</v>
       </c>
@@ -18999,7 +18998,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
         <v>50</v>
       </c>
@@ -19025,7 +19024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
         <v>50</v>
       </c>
@@ -19051,7 +19050,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>50</v>
       </c>
@@ -19077,7 +19076,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>50</v>
       </c>
@@ -19103,7 +19102,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>50</v>
       </c>
@@ -19129,7 +19128,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
         <v>50</v>
       </c>
@@ -19155,7 +19154,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>50</v>
       </c>
@@ -19181,7 +19180,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>50</v>
       </c>
@@ -19207,7 +19206,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="7" t="s">
         <v>50</v>
       </c>
@@ -19233,7 +19232,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="7" t="s">
         <v>50</v>
       </c>
@@ -19259,7 +19258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
         <v>50</v>
       </c>
@@ -19285,7 +19284,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="7" t="s">
         <v>50</v>
       </c>
@@ -19311,7 +19310,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>50</v>
       </c>
@@ -19337,7 +19336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
         <v>50</v>
       </c>
@@ -19363,7 +19362,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
         <v>9</v>
       </c>
@@ -19389,7 +19388,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>9</v>
       </c>
@@ -19415,7 +19414,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>9</v>
       </c>
@@ -19441,7 +19440,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
         <v>9</v>
       </c>
@@ -19467,7 +19466,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
         <v>9</v>
       </c>
@@ -19493,7 +19492,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="7" t="s">
         <v>9</v>
       </c>
@@ -19519,7 +19518,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
         <v>9</v>
       </c>
@@ -19545,7 +19544,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>50</v>
       </c>
@@ -19571,7 +19570,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>50</v>
       </c>
@@ -19597,7 +19596,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
         <v>50</v>
       </c>
@@ -19623,7 +19622,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
         <v>50</v>
       </c>
@@ -19649,7 +19648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>50</v>
       </c>
@@ -19675,7 +19674,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>50</v>
       </c>
@@ -19701,7 +19700,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>50</v>
       </c>
@@ -19727,7 +19726,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>50</v>
       </c>
@@ -19753,7 +19752,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
         <v>50</v>
       </c>
@@ -19779,7 +19778,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="7" t="s">
         <v>50</v>
       </c>
@@ -19805,7 +19804,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="7" t="s">
         <v>50</v>
       </c>
@@ -19831,7 +19830,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>50</v>
       </c>
@@ -19857,7 +19856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>50</v>
       </c>
@@ -19883,7 +19882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>139</v>
       </c>
@@ -19909,7 +19908,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>139</v>
       </c>
@@ -19935,7 +19934,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>139</v>
       </c>
@@ -19961,7 +19960,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="7" t="s">
         <v>139</v>
       </c>
@@ -19987,7 +19986,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
         <v>139</v>
       </c>
@@ -20013,7 +20012,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>139</v>
       </c>
@@ -20039,7 +20038,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
         <v>139</v>
       </c>
@@ -20065,7 +20064,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="7" t="s">
         <v>139</v>
       </c>
@@ -20091,7 +20090,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>139</v>
       </c>
@@ -20117,7 +20116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>139</v>
       </c>
@@ -20143,7 +20142,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>139</v>
       </c>
@@ -20169,7 +20168,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>139</v>
       </c>
@@ -20195,7 +20194,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="7" t="s">
         <v>139</v>
       </c>
@@ -20221,7 +20220,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="7" t="s">
         <v>139</v>
       </c>
@@ -20247,7 +20246,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
         <v>139</v>
       </c>
@@ -20273,7 +20272,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
         <v>139</v>
       </c>
@@ -20299,7 +20298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>139</v>
       </c>
@@ -20325,7 +20324,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>139</v>
       </c>
@@ -20351,7 +20350,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>139</v>
       </c>
@@ -20377,7 +20376,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
         <v>139</v>
       </c>
@@ -20403,7 +20402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>139</v>
       </c>
@@ -20429,7 +20428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
         <v>139</v>
       </c>
@@ -20455,7 +20454,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
         <v>139</v>
       </c>
@@ -20481,7 +20480,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
         <v>139</v>
       </c>
@@ -20507,7 +20506,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>139</v>
       </c>
@@ -20533,7 +20532,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>139</v>
       </c>
@@ -20559,7 +20558,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>139</v>
       </c>
@@ -20585,7 +20584,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>139</v>
       </c>
@@ -20611,7 +20610,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>139</v>
       </c>
@@ -20637,7 +20636,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>139</v>
       </c>
@@ -20663,7 +20662,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>139</v>
       </c>
@@ -20689,7 +20688,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>139</v>
       </c>
@@ -20715,7 +20714,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>139</v>
       </c>
@@ -20741,7 +20740,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>139</v>
       </c>
@@ -20767,7 +20766,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>139</v>
       </c>
@@ -20793,7 +20792,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>139</v>
       </c>
@@ -20819,7 +20818,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>139</v>
       </c>
@@ -20845,7 +20844,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
         <v>139</v>
       </c>
@@ -20871,7 +20870,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>139</v>
       </c>
@@ -20897,7 +20896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>139</v>
       </c>
@@ -20923,7 +20922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>139</v>
       </c>
@@ -20949,7 +20948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>139</v>
       </c>
@@ -20975,7 +20974,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>139</v>
       </c>
@@ -21001,7 +21000,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>139</v>
       </c>
@@ -21027,7 +21026,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>139</v>
       </c>
@@ -21053,7 +21052,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
         <v>139</v>
       </c>
@@ -21079,7 +21078,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>139</v>
       </c>
@@ -21105,7 +21104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>139</v>
       </c>
@@ -21131,7 +21130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>139</v>
       </c>
@@ -21157,7 +21156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>50</v>
       </c>
@@ -21183,7 +21182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>50</v>
       </c>
@@ -21209,7 +21208,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
         <v>50</v>
       </c>
@@ -21235,7 +21234,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>50</v>
       </c>
@@ -21261,7 +21260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
         <v>50</v>
       </c>
@@ -21287,7 +21286,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>50</v>
       </c>
@@ -21313,7 +21312,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>50</v>
       </c>
@@ -21339,7 +21338,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>50</v>
       </c>
@@ -21365,7 +21364,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>50</v>
       </c>
@@ -21391,7 +21390,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>50</v>
       </c>
@@ -21417,7 +21416,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>50</v>
       </c>
@@ -21443,7 +21442,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>50</v>
       </c>
@@ -21469,7 +21468,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
         <v>50</v>
       </c>
@@ -21495,7 +21494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>50</v>
       </c>
@@ -21521,7 +21520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
         <v>139</v>
       </c>
@@ -21547,7 +21546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>139</v>
       </c>
@@ -21573,7 +21572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
         <v>139</v>
       </c>
@@ -21599,7 +21598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>139</v>
       </c>
@@ -21625,7 +21624,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>139</v>
       </c>
@@ -21651,7 +21650,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>139</v>
       </c>
@@ -21677,7 +21676,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
         <v>139</v>
       </c>
@@ -21703,7 +21702,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>139</v>
       </c>
@@ -21729,7 +21728,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>139</v>
       </c>
@@ -21755,7 +21754,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>139</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
         <v>9</v>
       </c>
@@ -21807,7 +21806,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>9</v>
       </c>
@@ -21833,7 +21832,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>9</v>
       </c>
@@ -21859,7 +21858,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>9</v>
       </c>
@@ -21885,7 +21884,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>9</v>
       </c>
@@ -21911,7 +21910,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>9</v>
       </c>
@@ -21937,7 +21936,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>9</v>
       </c>
@@ -21963,7 +21962,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>9</v>
       </c>
@@ -21989,7 +21988,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
         <v>9</v>
       </c>
@@ -22015,7 +22014,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>9</v>
       </c>
@@ -22041,7 +22040,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>9</v>
       </c>
@@ -22067,7 +22066,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>50</v>
       </c>
@@ -22093,7 +22092,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>50</v>
       </c>
@@ -22119,7 +22118,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>50</v>
       </c>
@@ -22145,7 +22144,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>50</v>
       </c>
@@ -22171,7 +22170,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>50</v>
       </c>
@@ -22197,7 +22196,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="7" t="s">
         <v>50</v>
       </c>
@@ -22223,7 +22222,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="7" t="s">
         <v>50</v>
       </c>
@@ -22249,7 +22248,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="7" t="s">
         <v>50</v>
       </c>
@@ -22275,7 +22274,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="7" t="s">
         <v>50</v>
       </c>
@@ -22301,7 +22300,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="7" t="s">
         <v>50</v>
       </c>
@@ -22327,7 +22326,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>50</v>
       </c>
@@ -22353,7 +22352,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="7" t="s">
         <v>50</v>
       </c>
@@ -22379,7 +22378,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="7" t="s">
         <v>9</v>
       </c>
@@ -22405,7 +22404,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="7" t="s">
         <v>9</v>
       </c>
@@ -22431,7 +22430,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="7" t="s">
         <v>9</v>
       </c>
@@ -22457,7 +22456,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="7" t="s">
         <v>9</v>
       </c>
@@ -22483,7 +22482,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>9</v>
       </c>
@@ -22509,7 +22508,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>9</v>
       </c>
@@ -22535,7 +22534,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>9</v>
       </c>
@@ -22561,7 +22560,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>9</v>
       </c>
@@ -22587,7 +22586,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>9</v>
       </c>
@@ -22613,7 +22612,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>50</v>
       </c>
@@ -22639,7 +22638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>50</v>
       </c>
@@ -22665,7 +22664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>50</v>
       </c>
@@ -22691,7 +22690,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>50</v>
       </c>
@@ -22717,7 +22716,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>50</v>
       </c>
@@ -22743,7 +22742,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>50</v>
       </c>
@@ -22769,7 +22768,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>50</v>
       </c>
@@ -22795,7 +22794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>50</v>
       </c>
@@ -22821,7 +22820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>50</v>
       </c>
@@ -22847,7 +22846,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>50</v>
       </c>
@@ -22873,7 +22872,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>50</v>
       </c>
@@ -22899,7 +22898,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
         <v>50</v>
       </c>
@@ -22925,7 +22924,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="7" t="s">
         <v>50</v>
       </c>
@@ -22951,7 +22950,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="7" t="s">
         <v>50</v>
       </c>
@@ -22977,7 +22976,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>50</v>
       </c>
@@ -23003,7 +23002,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>50</v>
       </c>
@@ -23029,7 +23028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>50</v>
       </c>
@@ -23055,7 +23054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>50</v>
       </c>
@@ -23081,7 +23080,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>50</v>
       </c>
@@ -23107,7 +23106,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>50</v>
       </c>
@@ -23133,7 +23132,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>50</v>
       </c>
@@ -23159,7 +23158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>50</v>
       </c>
@@ -23185,7 +23184,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>50</v>
       </c>
@@ -23211,7 +23210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>50</v>
       </c>
@@ -23237,7 +23236,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>50</v>
       </c>
@@ -23263,7 +23262,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>50</v>
       </c>
@@ -23289,7 +23288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="7" t="s">
         <v>50</v>
       </c>
@@ -23315,7 +23314,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>50</v>
       </c>
@@ -23341,7 +23340,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="7" t="s">
         <v>50</v>
       </c>
@@ -23367,7 +23366,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>50</v>
       </c>
@@ -23393,7 +23392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>50</v>
       </c>
@@ -23419,7 +23418,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>50</v>
       </c>
@@ -23445,7 +23444,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>50</v>
       </c>
@@ -23471,7 +23470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>50</v>
       </c>
@@ -23497,7 +23496,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>50</v>
       </c>
@@ -23523,7 +23522,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>50</v>
       </c>
@@ -23549,7 +23548,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>50</v>
       </c>
@@ -23575,7 +23574,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>50</v>
       </c>
@@ -23601,7 +23600,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>50</v>
       </c>
@@ -23627,7 +23626,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>50</v>
       </c>
@@ -23653,7 +23652,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>50</v>
       </c>
@@ -23679,7 +23678,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>50</v>
       </c>
@@ -23705,7 +23704,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>50</v>
       </c>
@@ -23731,7 +23730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>50</v>
       </c>
@@ -23757,7 +23756,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>139</v>
       </c>
@@ -23783,7 +23782,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>139</v>
       </c>
@@ -23809,7 +23808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>139</v>
       </c>
@@ -23835,7 +23834,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>139</v>
       </c>
@@ -23861,7 +23860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>139</v>
       </c>
@@ -23887,7 +23886,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>139</v>
       </c>
@@ -23913,7 +23912,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>139</v>
       </c>
@@ -23939,7 +23938,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>139</v>
       </c>
@@ -23965,7 +23964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="7" t="s">
         <v>139</v>
       </c>
@@ -23991,7 +23990,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="7" t="s">
         <v>9</v>
       </c>
@@ -24017,7 +24016,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>9</v>
       </c>
@@ -24043,7 +24042,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>9</v>
       </c>
@@ -24069,7 +24068,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>9</v>
       </c>
@@ -24095,7 +24094,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>9</v>
       </c>
@@ -24121,7 +24120,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>9</v>
       </c>
@@ -24147,7 +24146,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>9</v>
       </c>
@@ -24173,7 +24172,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>9</v>
       </c>
@@ -24199,7 +24198,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>9</v>
       </c>
@@ -24225,7 +24224,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>9</v>
       </c>
@@ -24251,7 +24250,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>9</v>
       </c>
@@ -24277,7 +24276,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>9</v>
       </c>
@@ -24303,7 +24302,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>9</v>
       </c>
@@ -24329,7 +24328,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>9</v>
       </c>
@@ -24355,7 +24354,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>9</v>
       </c>
@@ -24381,7 +24380,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>9</v>
       </c>
@@ -24407,7 +24406,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>9</v>
       </c>
@@ -24433,7 +24432,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>9</v>
       </c>
@@ -24459,7 +24458,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>9</v>
       </c>
@@ -24485,7 +24484,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>9</v>
       </c>
@@ -24511,7 +24510,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>50</v>
       </c>
@@ -24537,7 +24536,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>50</v>
       </c>
@@ -24563,7 +24562,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>50</v>
       </c>
@@ -24589,7 +24588,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>50</v>
       </c>
@@ -24615,7 +24614,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>50</v>
       </c>
@@ -24641,7 +24640,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>50</v>
       </c>
@@ -24667,7 +24666,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" s="7" t="s">
         <v>50</v>
       </c>
@@ -24693,7 +24692,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>9</v>
       </c>
@@ -24719,7 +24718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>9</v>
       </c>
@@ -24745,7 +24744,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>9</v>
       </c>
@@ -24771,7 +24770,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>9</v>
       </c>
@@ -24797,7 +24796,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>9</v>
       </c>
@@ -24823,7 +24822,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" s="7" t="s">
         <v>9</v>
       </c>
@@ -24849,7 +24848,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" s="7" t="s">
         <v>9</v>
       </c>
@@ -24875,7 +24874,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="7" t="s">
         <v>9</v>
       </c>
@@ -24901,7 +24900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="7" t="s">
         <v>50</v>
       </c>
@@ -24927,7 +24926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
         <v>50</v>
       </c>
@@ -24953,7 +24952,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>50</v>
       </c>
@@ -24979,7 +24978,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>50</v>
       </c>
@@ -25005,7 +25004,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>50</v>
       </c>
@@ -25031,7 +25030,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>50</v>
       </c>
@@ -25057,7 +25056,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>50</v>
       </c>
@@ -25083,7 +25082,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>50</v>
       </c>
@@ -25109,7 +25108,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>50</v>
       </c>
@@ -25135,7 +25134,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>50</v>
       </c>
@@ -25161,7 +25160,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" s="7" t="s">
         <v>50</v>
       </c>
@@ -25187,7 +25186,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" s="7" t="s">
         <v>50</v>
       </c>
@@ -25213,7 +25212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>50</v>
       </c>
@@ -25239,7 +25238,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>50</v>
       </c>
@@ -25265,7 +25264,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
         <v>50</v>
       </c>
@@ -25291,7 +25290,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" s="7" t="s">
         <v>50</v>
       </c>
@@ -25317,7 +25316,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" s="7" t="s">
         <v>50</v>
       </c>
@@ -25343,7 +25342,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>50</v>
       </c>
@@ -25369,872 +25368,866 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H716" s="12"/>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H717" s="12"/>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H718" s="12"/>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H719" s="12"/>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H720" s="12"/>
     </row>
-    <row r="721" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H721" s="12"/>
     </row>
-    <row r="722" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H722" s="12"/>
     </row>
-    <row r="723" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H723" s="12"/>
     </row>
-    <row r="724" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H724" s="12"/>
     </row>
-    <row r="725" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H725" s="12"/>
     </row>
-    <row r="726" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H726" s="12"/>
     </row>
-    <row r="727" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H727" s="12"/>
     </row>
-    <row r="728" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H728" s="12"/>
     </row>
-    <row r="729" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H729" s="12"/>
     </row>
-    <row r="730" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H730" s="12"/>
     </row>
-    <row r="731" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H731" s="12"/>
     </row>
-    <row r="732" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H732" s="12"/>
     </row>
-    <row r="733" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H733" s="12"/>
     </row>
-    <row r="734" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H734" s="12"/>
     </row>
-    <row r="735" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H735" s="12"/>
     </row>
-    <row r="736" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H736" s="12"/>
     </row>
-    <row r="737" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H737" s="12"/>
     </row>
-    <row r="738" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H738" s="12"/>
     </row>
-    <row r="739" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H739" s="12"/>
     </row>
-    <row r="740" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H740" s="12"/>
     </row>
-    <row r="741" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H741" s="12"/>
     </row>
-    <row r="742" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H742" s="12"/>
     </row>
-    <row r="743" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H743" s="12"/>
     </row>
-    <row r="744" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H744" s="12"/>
     </row>
-    <row r="745" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H745" s="12"/>
     </row>
-    <row r="746" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H746" s="12"/>
     </row>
-    <row r="747" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H747" s="12"/>
     </row>
-    <row r="748" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H748" s="12"/>
     </row>
-    <row r="749" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H749" s="12"/>
     </row>
-    <row r="750" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H750" s="12"/>
     </row>
-    <row r="751" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H751" s="12"/>
     </row>
-    <row r="752" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H752" s="12"/>
     </row>
-    <row r="753" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H753" s="12"/>
     </row>
-    <row r="754" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H754" s="12"/>
     </row>
-    <row r="755" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H755" s="12"/>
     </row>
-    <row r="756" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H756" s="12"/>
     </row>
-    <row r="757" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H757" s="12"/>
     </row>
-    <row r="758" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H758" s="12"/>
     </row>
-    <row r="759" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H759" s="12"/>
     </row>
-    <row r="760" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H760" s="12"/>
     </row>
-    <row r="761" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H761" s="12"/>
     </row>
-    <row r="762" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H762" s="12"/>
     </row>
-    <row r="763" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H763" s="12"/>
     </row>
-    <row r="764" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H764" s="12"/>
     </row>
-    <row r="765" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H765" s="12"/>
     </row>
-    <row r="766" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H766" s="12"/>
     </row>
-    <row r="767" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H767" s="12"/>
     </row>
-    <row r="768" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H768" s="12"/>
     </row>
-    <row r="769" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H769" s="12"/>
     </row>
-    <row r="770" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H770" s="12"/>
     </row>
-    <row r="771" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H771" s="12"/>
     </row>
-    <row r="772" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H772" s="12"/>
     </row>
-    <row r="773" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H773" s="12"/>
     </row>
-    <row r="774" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H774" s="12"/>
     </row>
-    <row r="775" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H775" s="12"/>
     </row>
-    <row r="776" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H776" s="12"/>
     </row>
-    <row r="777" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H777" s="12"/>
     </row>
-    <row r="778" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H778" s="12"/>
     </row>
-    <row r="779" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H779" s="12"/>
     </row>
-    <row r="780" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H780" s="12"/>
     </row>
-    <row r="781" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H781" s="12"/>
     </row>
-    <row r="782" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H782" s="12"/>
     </row>
-    <row r="783" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H783" s="12"/>
     </row>
-    <row r="784" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H784" s="12"/>
     </row>
-    <row r="785" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H785" s="12"/>
     </row>
-    <row r="786" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H786" s="12"/>
     </row>
-    <row r="787" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H787" s="12"/>
     </row>
-    <row r="788" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H788" s="12"/>
     </row>
-    <row r="789" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H789" s="12"/>
     </row>
-    <row r="790" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H790" s="12"/>
     </row>
-    <row r="791" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H791" s="12"/>
     </row>
-    <row r="792" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H792" s="12"/>
     </row>
-    <row r="793" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H793" s="12"/>
     </row>
-    <row r="794" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H794" s="12"/>
     </row>
-    <row r="795" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H795" s="12"/>
     </row>
-    <row r="796" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H796" s="12"/>
     </row>
-    <row r="797" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H797" s="12"/>
     </row>
-    <row r="798" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H798" s="12"/>
     </row>
-    <row r="799" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H799" s="12"/>
     </row>
-    <row r="800" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H800" s="12"/>
     </row>
-    <row r="801" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H801" s="12"/>
     </row>
-    <row r="802" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H802" s="12"/>
     </row>
-    <row r="803" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H803" s="12"/>
     </row>
-    <row r="804" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H804" s="12"/>
     </row>
-    <row r="805" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H805" s="12"/>
     </row>
-    <row r="806" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H806" s="12"/>
     </row>
-    <row r="807" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H807" s="12"/>
     </row>
-    <row r="808" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H808" s="12"/>
     </row>
-    <row r="809" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H809" s="12"/>
     </row>
-    <row r="810" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H810" s="12"/>
     </row>
-    <row r="811" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H811" s="12"/>
     </row>
-    <row r="812" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H812" s="12"/>
     </row>
-    <row r="813" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H813" s="12"/>
     </row>
-    <row r="814" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H814" s="12"/>
     </row>
-    <row r="815" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H815" s="12"/>
     </row>
-    <row r="816" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H816" s="12"/>
     </row>
-    <row r="817" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H817" s="12"/>
     </row>
-    <row r="818" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H818" s="12"/>
     </row>
-    <row r="819" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H819" s="12"/>
     </row>
-    <row r="820" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H820" s="12"/>
     </row>
-    <row r="821" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H821" s="12"/>
     </row>
-    <row r="822" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H822" s="12"/>
     </row>
-    <row r="823" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H823" s="12"/>
     </row>
-    <row r="824" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H824" s="12"/>
     </row>
-    <row r="825" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H825" s="12"/>
     </row>
-    <row r="826" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H826" s="12"/>
     </row>
-    <row r="827" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H827" s="12"/>
     </row>
-    <row r="828" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H828" s="12"/>
     </row>
-    <row r="829" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H829" s="12"/>
     </row>
-    <row r="830" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H830" s="12"/>
     </row>
-    <row r="831" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H831" s="12"/>
     </row>
-    <row r="832" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H832" s="12"/>
     </row>
-    <row r="833" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H833" s="12"/>
     </row>
-    <row r="834" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H834" s="12"/>
     </row>
-    <row r="835" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H835" s="12"/>
     </row>
-    <row r="836" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H836" s="12"/>
     </row>
-    <row r="837" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H837" s="12"/>
     </row>
-    <row r="838" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H838" s="12"/>
     </row>
-    <row r="839" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H839" s="12"/>
     </row>
-    <row r="840" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H840" s="12"/>
     </row>
-    <row r="841" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H841" s="12"/>
     </row>
-    <row r="842" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H842" s="12"/>
     </row>
-    <row r="843" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H843" s="12"/>
     </row>
-    <row r="844" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H844" s="12"/>
     </row>
-    <row r="845" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H845" s="12"/>
     </row>
-    <row r="846" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H846" s="12"/>
     </row>
-    <row r="847" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H847" s="12"/>
     </row>
-    <row r="848" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H848" s="12"/>
     </row>
-    <row r="849" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H849" s="12"/>
     </row>
-    <row r="850" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H850" s="12"/>
     </row>
-    <row r="851" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H851" s="12"/>
     </row>
-    <row r="852" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H852" s="12"/>
     </row>
-    <row r="853" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H853" s="12"/>
     </row>
-    <row r="854" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H854" s="12"/>
     </row>
-    <row r="855" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H855" s="12"/>
     </row>
-    <row r="856" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H856" s="12"/>
     </row>
-    <row r="857" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H857" s="12"/>
     </row>
-    <row r="858" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H858" s="12"/>
     </row>
-    <row r="859" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H859" s="12"/>
     </row>
-    <row r="860" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H860" s="12"/>
     </row>
-    <row r="861" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H861" s="12"/>
     </row>
-    <row r="862" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H862" s="12"/>
     </row>
-    <row r="863" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H863" s="12"/>
     </row>
-    <row r="864" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H864" s="12"/>
     </row>
-    <row r="865" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H865" s="12"/>
     </row>
-    <row r="866" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H866" s="12"/>
     </row>
-    <row r="867" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H867" s="12"/>
     </row>
-    <row r="868" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H868" s="12"/>
     </row>
-    <row r="869" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H869" s="12"/>
     </row>
-    <row r="870" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H870" s="12"/>
     </row>
-    <row r="871" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H871" s="12"/>
     </row>
-    <row r="872" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H872" s="12"/>
     </row>
-    <row r="873" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H873" s="12"/>
     </row>
-    <row r="874" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H874" s="12"/>
     </row>
-    <row r="875" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H875" s="12"/>
     </row>
-    <row r="876" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H876" s="12"/>
     </row>
-    <row r="877" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H877" s="12"/>
     </row>
-    <row r="878" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H878" s="12"/>
     </row>
-    <row r="879" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H879" s="12"/>
     </row>
-    <row r="880" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H880" s="12"/>
     </row>
-    <row r="881" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H881" s="12"/>
     </row>
-    <row r="882" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H882" s="12"/>
     </row>
-    <row r="883" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H883" s="12"/>
     </row>
-    <row r="884" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H884" s="12"/>
     </row>
-    <row r="885" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H885" s="12"/>
     </row>
-    <row r="886" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H886" s="12"/>
     </row>
-    <row r="887" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H887" s="12"/>
     </row>
-    <row r="888" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H888" s="12"/>
     </row>
-    <row r="889" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H889" s="12"/>
     </row>
-    <row r="890" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H890" s="12"/>
     </row>
-    <row r="891" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H891" s="12"/>
     </row>
-    <row r="892" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H892" s="12"/>
     </row>
-    <row r="893" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H893" s="12"/>
     </row>
-    <row r="894" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H894" s="12"/>
     </row>
-    <row r="895" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H895" s="12"/>
     </row>
-    <row r="896" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H896" s="12"/>
     </row>
-    <row r="897" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H897" s="12"/>
     </row>
-    <row r="898" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H898" s="12"/>
     </row>
-    <row r="899" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H899" s="12"/>
     </row>
-    <row r="900" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H900" s="12"/>
     </row>
-    <row r="901" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H901" s="12"/>
     </row>
-    <row r="902" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H902" s="12"/>
     </row>
-    <row r="903" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H903" s="12"/>
     </row>
-    <row r="904" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H904" s="12"/>
     </row>
-    <row r="905" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H905" s="12"/>
     </row>
-    <row r="906" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H906" s="12"/>
     </row>
-    <row r="907" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H907" s="12"/>
     </row>
-    <row r="908" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H908" s="12"/>
     </row>
-    <row r="909" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H909" s="12"/>
     </row>
-    <row r="910" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H910" s="12"/>
     </row>
-    <row r="911" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H911" s="12"/>
     </row>
-    <row r="912" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H912" s="12"/>
     </row>
-    <row r="913" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H913" s="12"/>
     </row>
-    <row r="914" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H914" s="12"/>
     </row>
-    <row r="915" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H915" s="12"/>
     </row>
-    <row r="916" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H916" s="12"/>
     </row>
-    <row r="917" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H917" s="12"/>
     </row>
-    <row r="918" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H918" s="12"/>
     </row>
-    <row r="919" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H919" s="12"/>
     </row>
-    <row r="920" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H920" s="12"/>
     </row>
-    <row r="921" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H921" s="12"/>
     </row>
-    <row r="922" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H922" s="12"/>
     </row>
-    <row r="923" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H923" s="12"/>
     </row>
-    <row r="924" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H924" s="12"/>
     </row>
-    <row r="925" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H925" s="12"/>
     </row>
-    <row r="926" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H926" s="12"/>
     </row>
-    <row r="927" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H927" s="12"/>
     </row>
-    <row r="928" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H928" s="12"/>
     </row>
-    <row r="929" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H929" s="12"/>
     </row>
-    <row r="930" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H930" s="12"/>
     </row>
-    <row r="931" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H931" s="12"/>
     </row>
-    <row r="932" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H932" s="12"/>
     </row>
-    <row r="933" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H933" s="12"/>
     </row>
-    <row r="934" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H934" s="12"/>
     </row>
-    <row r="935" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H935" s="12"/>
     </row>
-    <row r="936" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H936" s="12"/>
     </row>
-    <row r="937" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H937" s="12"/>
     </row>
-    <row r="938" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H938" s="12"/>
     </row>
-    <row r="939" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H939" s="12"/>
     </row>
-    <row r="940" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H940" s="12"/>
     </row>
-    <row r="941" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H941" s="12"/>
     </row>
-    <row r="942" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H942" s="12"/>
     </row>
-    <row r="943" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H943" s="12"/>
     </row>
-    <row r="944" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H944" s="12"/>
     </row>
-    <row r="945" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H945" s="12"/>
     </row>
-    <row r="946" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H946" s="12"/>
     </row>
-    <row r="947" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H947" s="12"/>
     </row>
-    <row r="948" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H948" s="12"/>
     </row>
-    <row r="949" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H949" s="12"/>
     </row>
-    <row r="950" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H950" s="12"/>
     </row>
-    <row r="951" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H951" s="12"/>
     </row>
-    <row r="952" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H952" s="12"/>
     </row>
-    <row r="953" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H953" s="12"/>
     </row>
-    <row r="954" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H954" s="12"/>
     </row>
-    <row r="955" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H955" s="12"/>
     </row>
-    <row r="956" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H956" s="12"/>
     </row>
-    <row r="957" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H957" s="12"/>
     </row>
-    <row r="958" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H958" s="12"/>
     </row>
-    <row r="959" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H959" s="12"/>
     </row>
-    <row r="960" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H960" s="12"/>
     </row>
-    <row r="961" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H961" s="12"/>
     </row>
-    <row r="962" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H962" s="12"/>
     </row>
-    <row r="963" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H963" s="12"/>
     </row>
-    <row r="964" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H964" s="12"/>
     </row>
-    <row r="965" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H965" s="12"/>
     </row>
-    <row r="966" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H966" s="12"/>
     </row>
-    <row r="967" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H967" s="12"/>
     </row>
-    <row r="968" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H968" s="12"/>
     </row>
-    <row r="969" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H969" s="12"/>
     </row>
-    <row r="970" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H970" s="12"/>
     </row>
-    <row r="971" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H971" s="12"/>
     </row>
-    <row r="972" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H972" s="12"/>
     </row>
-    <row r="973" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H973" s="12"/>
     </row>
-    <row r="974" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H974" s="12"/>
     </row>
-    <row r="975" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H975" s="12"/>
     </row>
-    <row r="976" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H976" s="12"/>
     </row>
-    <row r="977" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H977" s="12"/>
     </row>
-    <row r="978" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H978" s="12"/>
     </row>
-    <row r="979" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H979" s="12"/>
     </row>
-    <row r="980" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H980" s="12"/>
     </row>
-    <row r="981" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H981" s="12"/>
     </row>
-    <row r="982" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H982" s="12"/>
     </row>
-    <row r="983" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H983" s="12"/>
     </row>
-    <row r="984" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H984" s="12"/>
     </row>
-    <row r="985" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H985" s="12"/>
     </row>
-    <row r="986" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H986" s="12"/>
     </row>
-    <row r="987" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H987" s="12"/>
     </row>
-    <row r="988" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H988" s="12"/>
     </row>
-    <row r="989" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H989" s="12"/>
     </row>
-    <row r="990" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H990" s="12"/>
     </row>
-    <row r="991" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H991" s="12"/>
     </row>
-    <row r="992" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H992" s="12"/>
     </row>
-    <row r="993" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H993" s="12"/>
     </row>
-    <row r="994" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H994" s="12"/>
     </row>
-    <row r="995" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H995" s="12"/>
     </row>
-    <row r="996" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H996" s="12"/>
     </row>
-    <row r="997" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H997" s="12"/>
     </row>
-    <row r="998" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H998" s="12"/>
     </row>
-    <row r="999" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H999" s="12"/>
     </row>
-    <row r="1000" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H1000" s="12"/>
     </row>
-    <row r="1001" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H1001" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B1001" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Đắk Lắk"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B1001" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
